--- a/BDQ_Rv0678_targets_incl_WT.xlsx
+++ b/BDQ_Rv0678_targets_incl_WT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soonwoohong/Library/CloudStorage/GoogleDrive-sh5230@princeton.edu/.shortcut-targets-by-id/1fc61rmoxxDIgSxNlbKpHNutryvyYltP4/Soonwoo/python/badgers_search_guide/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CB7281C-11BC-FD41-82B7-0493357EDCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6615861F-778F-8540-9065-581019F65D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37200" yWindow="3960" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="2680" windowWidth="29400" windowHeight="18380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -872,7 +872,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1184,7 +1184,7 @@
   <dimension ref="A1:Q77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1288,10 +1288,10 @@
         <v>1.06280193236714</v>
       </c>
       <c r="G3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="M3">
         <v>15</v>
@@ -1312,13 +1312,13 @@
         <v>1015</v>
       </c>
       <c r="O3" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" t="s">
         <v>39</v>
       </c>
-      <c r="P3" t="s">
-        <v>111</v>
-      </c>
       <c r="Q3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
@@ -1342,10 +1342,10 @@
         <v>1.06280193236714</v>
       </c>
       <c r="G4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="M4">
         <v>15</v>
@@ -1366,13 +1366,13 @@
         <v>1015</v>
       </c>
       <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
         <v>111</v>
       </c>
-      <c r="P4" t="s">
-        <v>39</v>
-      </c>
       <c r="Q4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -5320,7 +5320,7 @@
   </sheetData>
   <autoFilter ref="A1:Q77" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q77">
-      <sortCondition ref="N1:N77"/>
+      <sortCondition ref="A1:A77"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
